--- a/Client/assets/Csv/Building.xlsx
+++ b/Client/assets/Csv/Building.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27309"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\git\WarOfStarship\Client\assets\Csv\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/stvzhou/git/WarOfStarship/Client/assets/Csv/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="28800" windowHeight="16200" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16180" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -17,8 +17,11 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">工作表1!$A$1:$K$1</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="152511" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -257,7 +260,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -579,20 +582,20 @@
   <dimension ref="A1:O14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="O4" sqref="O4"/>
+      <selection pane="bottomRight" activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="15" customWidth="1"/>
     <col min="2" max="2" width="13" customWidth="1"/>
     <col min="15" max="15" width="33" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -639,7 +642,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -665,7 +668,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="3" spans="1:15">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>45</v>
       </c>
@@ -688,7 +691,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -714,7 +717,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="5" spans="1:15">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>46</v>
       </c>
@@ -737,7 +740,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="6" spans="1:15">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -775,7 +778,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:15">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -795,7 +798,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:15">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -833,7 +836,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:15">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>14</v>
       </c>
@@ -853,7 +856,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:15">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>16</v>
       </c>
@@ -891,7 +894,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:15">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>15</v>
       </c>
@@ -911,7 +914,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:15">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>9</v>
       </c>
@@ -949,7 +952,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:15">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -969,7 +972,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:15">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>42</v>
       </c>

--- a/Client/assets/Csv/Building.xlsx
+++ b/Client/assets/Csv/Building.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27309"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/stvzhou/git/WarOfStarship/Client/assets/Csv/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\git\WarOfStarship\Client\assets\Csv\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16180" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="28800" windowHeight="16185" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -19,9 +19,6 @@
   </definedNames>
   <calcPr calcId="152511" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -196,63 +193,63 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>iron</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iron</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ironhouse</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>energyhouse</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>铁元素仓库</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>反物质储存舱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iron</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>energy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>_ERROR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Description</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在恒星系附近收集铁元素</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>收集恒星的辐射能量，转化为反物质以便储存</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>以反物质的形式储存能量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>储存铁元素</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>_upgradeRate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>iron</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>iron</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ironhouse</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>energyhouse</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>铁元素仓库</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>反物质储存舱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>iron</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>energy</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>_ERROR</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Description</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>在恒星系附近收集铁元素</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>收集恒星的辐射能量，转化为反物质以便储存</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>以反物质的形式储存能量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>储存铁元素</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -260,7 +257,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -588,14 +585,14 @@
       <selection pane="bottomRight" activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="15" customWidth="1"/>
     <col min="2" max="2" width="13" customWidth="1"/>
     <col min="15" max="15" width="33" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -639,10 +636,10 @@
         <v>39</v>
       </c>
       <c r="O1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -656,7 +653,7 @@
         <v>10</v>
       </c>
       <c r="J2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K2">
         <v>10</v>
@@ -665,15 +662,15 @@
         <v>4</v>
       </c>
       <c r="O2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C3" t="s">
         <v>28</v>
@@ -688,10 +685,10 @@
         <v>3</v>
       </c>
       <c r="O3" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -714,15 +711,15 @@
         <v>4</v>
       </c>
       <c r="O4" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C5" t="s">
         <v>28</v>
@@ -737,10 +734,10 @@
         <v>3</v>
       </c>
       <c r="O5" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -754,13 +751,13 @@
         <v>100</v>
       </c>
       <c r="F6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G6">
         <v>30</v>
       </c>
       <c r="H6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I6">
         <v>1</v>
@@ -778,7 +775,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -798,7 +795,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -812,13 +809,13 @@
         <v>160</v>
       </c>
       <c r="F8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G8">
         <v>50</v>
       </c>
       <c r="H8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I8">
         <v>2</v>
@@ -836,7 +833,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15">
       <c r="A9" t="s">
         <v>14</v>
       </c>
@@ -856,7 +853,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15">
       <c r="A10" t="s">
         <v>16</v>
       </c>
@@ -870,13 +867,13 @@
         <v>80</v>
       </c>
       <c r="F10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G10">
         <v>25</v>
       </c>
       <c r="H10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I10">
         <v>1</v>
@@ -894,7 +891,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:15">
       <c r="A11" t="s">
         <v>15</v>
       </c>
@@ -914,7 +911,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:15">
       <c r="A12" t="s">
         <v>9</v>
       </c>
@@ -928,13 +925,13 @@
         <v>2000</v>
       </c>
       <c r="F12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G12">
         <v>10000</v>
       </c>
       <c r="H12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I12">
         <v>10000</v>
@@ -952,7 +949,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:15">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -972,12 +969,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:15">
       <c r="A14" t="s">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="B14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D14">
         <v>5</v>

--- a/Client/assets/Csv/Building.xlsx
+++ b/Client/assets/Csv/Building.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\git\WarOfStarship\Client\assets\Csv\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\WarOfStarship\Client\assets\Csv\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -17,7 +17,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">工作表1!$A$1:$K$1</definedName>
   </definedNames>
-  <calcPr calcId="152511" concurrentCalc="0"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -93,22 +93,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>战斗机生产车间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>战斗机机库</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>轰炸机生产车间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>轰炸机机库</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>激光炮生产车间</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -250,13 +234,29 @@
   </si>
   <si>
     <t>_upgradeRate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击机机库</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击机生产车间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>护卫机生产车间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>护卫机机库</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2">
     <font>
       <sz val="12"/>
@@ -579,10 +579,10 @@
   <dimension ref="A1:O14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="J2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A14" sqref="A14"/>
+      <selection pane="bottomRight" activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -600,25 +600,25 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D1" t="s">
         <v>4</v>
       </c>
       <c r="E1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="F1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="I1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="J1" t="s">
         <v>2</v>
@@ -627,16 +627,16 @@
         <v>3</v>
       </c>
       <c r="L1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="M1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="N1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="O1" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:15">
@@ -647,13 +647,13 @@
         <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D2">
         <v>10</v>
       </c>
       <c r="J2" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="K2">
         <v>10</v>
@@ -662,18 +662,18 @@
         <v>4</v>
       </c>
       <c r="O2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B3" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C3" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D3">
         <v>5</v>
@@ -685,7 +685,7 @@
         <v>3</v>
       </c>
       <c r="O3" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -696,13 +696,13 @@
         <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D4">
         <v>20</v>
       </c>
       <c r="J4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="K4">
         <v>5</v>
@@ -711,18 +711,18 @@
         <v>4</v>
       </c>
       <c r="O4" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B5" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C5" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D5">
         <v>100</v>
@@ -734,7 +734,7 @@
         <v>3</v>
       </c>
       <c r="O5" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -742,28 +742,28 @@
         <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>17</v>
+        <v>54</v>
       </c>
       <c r="C6" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D6">
         <v>100</v>
       </c>
       <c r="F6" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="G6">
         <v>30</v>
       </c>
       <c r="H6" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="I6">
         <v>1</v>
       </c>
       <c r="J6" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="L6">
         <v>0.25</v>
@@ -780,10 +780,10 @@
         <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
+        <v>53</v>
       </c>
       <c r="C7" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D7">
         <v>50</v>
@@ -800,28 +800,28 @@
         <v>13</v>
       </c>
       <c r="B8" t="s">
-        <v>19</v>
+        <v>55</v>
       </c>
       <c r="C8" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D8">
         <v>160</v>
       </c>
       <c r="F8" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="G8">
         <v>50</v>
       </c>
       <c r="H8" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="I8">
         <v>2</v>
       </c>
       <c r="J8" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="L8">
         <v>0.33329999999999999</v>
@@ -838,10 +838,10 @@
         <v>14</v>
       </c>
       <c r="B9" t="s">
-        <v>20</v>
+        <v>56</v>
       </c>
       <c r="C9" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D9">
         <v>80</v>
@@ -858,28 +858,28 @@
         <v>16</v>
       </c>
       <c r="B10" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C10" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D10">
         <v>80</v>
       </c>
       <c r="F10" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="G10">
         <v>25</v>
       </c>
       <c r="H10" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="I10">
         <v>1</v>
       </c>
       <c r="J10" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="L10">
         <v>0.2</v>
@@ -896,10 +896,10 @@
         <v>15</v>
       </c>
       <c r="B11" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C11" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D11">
         <v>200</v>
@@ -916,28 +916,28 @@
         <v>9</v>
       </c>
       <c r="B12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" t="s">
         <v>23</v>
-      </c>
-      <c r="C12" t="s">
-        <v>27</v>
       </c>
       <c r="D12">
         <v>2000</v>
       </c>
       <c r="F12" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="G12">
         <v>10000</v>
       </c>
       <c r="H12" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="I12">
         <v>10000</v>
       </c>
       <c r="J12" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="L12">
         <v>24</v>
@@ -954,10 +954,10 @@
         <v>10</v>
       </c>
       <c r="B13" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" t="s">
         <v>24</v>
-      </c>
-      <c r="C13" t="s">
-        <v>28</v>
       </c>
       <c r="D13">
         <v>1000</v>
@@ -971,10 +971,10 @@
     </row>
     <row r="14" spans="1:15">
       <c r="A14" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B14" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="D14">
         <v>5</v>

--- a/Client/assets/Csv/Building.xlsx
+++ b/Client/assets/Csv/Building.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\WarOfStarship\Client\assets\Csv\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\git\WarOfStarship\Client\assets\Csv\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -17,7 +17,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">工作表1!$A$1:$K$1</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="152511" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -93,6 +93,22 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>战斗机生产车间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>战斗机机库</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>轰炸机生产车间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>轰炸机机库</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>激光炮生产车间</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -234,29 +250,13 @@
   </si>
   <si>
     <t>_upgradeRate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>攻击机机库</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>攻击机生产车间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>护卫机生产车间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>护卫机机库</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2">
     <font>
       <sz val="12"/>
@@ -579,10 +579,10 @@
   <dimension ref="A1:O14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="J2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B11" sqref="B11"/>
+      <selection pane="bottomRight" activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -600,25 +600,25 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="D1" t="s">
         <v>4</v>
       </c>
       <c r="E1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F1" t="s">
         <v>33</v>
       </c>
-      <c r="F1" t="s">
-        <v>29</v>
-      </c>
       <c r="G1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="H1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="I1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="J1" t="s">
         <v>2</v>
@@ -627,16 +627,16 @@
         <v>3</v>
       </c>
       <c r="L1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="M1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="N1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="O1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:15">
@@ -647,13 +647,13 @@
         <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="D2">
         <v>10</v>
       </c>
       <c r="J2" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="K2">
         <v>10</v>
@@ -662,18 +662,18 @@
         <v>4</v>
       </c>
       <c r="O2" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B3" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="D3">
         <v>5</v>
@@ -685,7 +685,7 @@
         <v>3</v>
       </c>
       <c r="O3" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -696,13 +696,13 @@
         <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="D4">
         <v>20</v>
       </c>
       <c r="J4" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="K4">
         <v>5</v>
@@ -711,18 +711,18 @@
         <v>4</v>
       </c>
       <c r="O4" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B5" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="D5">
         <v>100</v>
@@ -734,7 +734,7 @@
         <v>3</v>
       </c>
       <c r="O5" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -742,28 +742,28 @@
         <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>54</v>
+        <v>17</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D6">
         <v>100</v>
       </c>
       <c r="F6" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="G6">
         <v>30</v>
       </c>
       <c r="H6" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="I6">
         <v>1</v>
       </c>
       <c r="J6" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="L6">
         <v>0.25</v>
@@ -780,10 +780,10 @@
         <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>53</v>
+        <v>18</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="D7">
         <v>50</v>
@@ -800,28 +800,28 @@
         <v>13</v>
       </c>
       <c r="B8" t="s">
-        <v>55</v>
+        <v>19</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D8">
         <v>160</v>
       </c>
       <c r="F8" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="G8">
         <v>50</v>
       </c>
       <c r="H8" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="I8">
         <v>2</v>
       </c>
       <c r="J8" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L8">
         <v>0.33329999999999999</v>
@@ -838,10 +838,10 @@
         <v>14</v>
       </c>
       <c r="B9" t="s">
-        <v>56</v>
+        <v>20</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="D9">
         <v>80</v>
@@ -858,28 +858,28 @@
         <v>16</v>
       </c>
       <c r="B10" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C10" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D10">
         <v>80</v>
       </c>
       <c r="F10" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="G10">
         <v>25</v>
       </c>
       <c r="H10" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="I10">
         <v>1</v>
       </c>
       <c r="J10" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="L10">
         <v>0.2</v>
@@ -896,10 +896,10 @@
         <v>15</v>
       </c>
       <c r="B11" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="D11">
         <v>200</v>
@@ -916,28 +916,28 @@
         <v>9</v>
       </c>
       <c r="B12" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C12" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D12">
         <v>2000</v>
       </c>
       <c r="F12" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="G12">
         <v>10000</v>
       </c>
       <c r="H12" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="I12">
         <v>10000</v>
       </c>
       <c r="J12" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="L12">
         <v>24</v>
@@ -954,10 +954,10 @@
         <v>10</v>
       </c>
       <c r="B13" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C13" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="D13">
         <v>1000</v>
@@ -971,10 +971,10 @@
     </row>
     <row r="14" spans="1:15">
       <c r="A14" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B14" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="D14">
         <v>5</v>

--- a/Client/assets/Csv/Building.xlsx
+++ b/Client/assets/Csv/Building.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\WarOfStarship\Client\assets\Csv\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\git\WarOfStarship\Client\assets\Csv\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -256,7 +256,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2">
     <font>
       <sz val="12"/>
@@ -579,10 +579,10 @@
   <dimension ref="A1:O14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="J2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B11" sqref="B11"/>
+      <selection pane="bottomRight" activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -656,7 +656,7 @@
         <v>39</v>
       </c>
       <c r="K2">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="N2">
         <v>4</v>
@@ -676,10 +676,10 @@
         <v>24</v>
       </c>
       <c r="D3">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="E3">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="N3">
         <v>3</v>
@@ -705,7 +705,7 @@
         <v>21</v>
       </c>
       <c r="K4">
-        <v>5</v>
+        <v>60</v>
       </c>
       <c r="N4">
         <v>4</v>
@@ -728,7 +728,7 @@
         <v>100</v>
       </c>
       <c r="E5">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N5">
         <v>3</v>
@@ -766,7 +766,7 @@
         <v>25</v>
       </c>
       <c r="L6">
-        <v>0.25</v>
+        <v>0.1</v>
       </c>
       <c r="M6">
         <v>4</v>
@@ -824,7 +824,7 @@
         <v>26</v>
       </c>
       <c r="L8">
-        <v>0.33329999999999999</v>
+        <v>0.12</v>
       </c>
       <c r="M8">
         <v>4</v>
@@ -882,7 +882,7 @@
         <v>27</v>
       </c>
       <c r="L10">
-        <v>0.2</v>
+        <v>0.15</v>
       </c>
       <c r="M10">
         <v>4</v>
@@ -980,10 +980,10 @@
         <v>5</v>
       </c>
       <c r="E14">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="K14">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="L14">
         <v>0.9</v>

--- a/Client/assets/Csv/Building.xlsx
+++ b/Client/assets/Csv/Building.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="70">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -251,6 +251,48 @@
   <si>
     <t>护卫机机库</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SensorRoof</t>
+  </si>
+  <si>
+    <t>SensorRoof</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DecoLivingBunks</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DecoBigFood</t>
+  </si>
+  <si>
+    <t>DecoLivingToilets</t>
+  </si>
+  <si>
+    <t>ThrusterSprite</t>
+  </si>
+  <si>
+    <t>BridgeRoom</t>
+  </si>
+  <si>
+    <t>TurretRoom</t>
+  </si>
+  <si>
+    <t>SensorRoom</t>
+  </si>
+  <si>
+    <t>DecoBigLids</t>
+  </si>
+  <si>
+    <t>SentryBase</t>
+  </si>
+  <si>
+    <t>ThrusterRoom</t>
   </si>
 </sst>
 </file>
@@ -576,23 +618,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O14"/>
+  <dimension ref="A1:P14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="L14" sqref="L14"/>
+      <selection pane="bottomRight" activeCell="P9" sqref="P9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="15" customWidth="1"/>
     <col min="2" max="2" width="13" customWidth="1"/>
-    <col min="15" max="15" width="33" customWidth="1"/>
+    <col min="16" max="16" width="33" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:16">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -636,10 +678,13 @@
         <v>35</v>
       </c>
       <c r="O1" t="s">
+        <v>57</v>
+      </c>
+      <c r="P1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:16">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -662,10 +707,13 @@
         <v>4</v>
       </c>
       <c r="O2" t="s">
+        <v>67</v>
+      </c>
+      <c r="P2" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="3" spans="1:15">
+    <row r="3" spans="1:16">
       <c r="A3" t="s">
         <v>40</v>
       </c>
@@ -685,10 +733,13 @@
         <v>3</v>
       </c>
       <c r="O3" t="s">
+        <v>60</v>
+      </c>
+      <c r="P3" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="1:16">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -711,10 +762,13 @@
         <v>4</v>
       </c>
       <c r="O4" t="s">
+        <v>59</v>
+      </c>
+      <c r="P4" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="5" spans="1:15">
+    <row r="5" spans="1:16">
       <c r="A5" t="s">
         <v>41</v>
       </c>
@@ -734,10 +788,13 @@
         <v>3</v>
       </c>
       <c r="O5" t="s">
+        <v>61</v>
+      </c>
+      <c r="P5" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="6" spans="1:15">
+    <row r="6" spans="1:16">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -774,8 +831,11 @@
       <c r="N6">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="1:15">
+      <c r="O6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -794,8 +854,11 @@
       <c r="N7">
         <v>2</v>
       </c>
-    </row>
-    <row r="8" spans="1:15">
+      <c r="O7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -832,8 +895,11 @@
       <c r="N8">
         <v>4</v>
       </c>
-    </row>
-    <row r="9" spans="1:15">
+      <c r="O8" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16">
       <c r="A9" t="s">
         <v>14</v>
       </c>
@@ -852,8 +918,11 @@
       <c r="N9">
         <v>2</v>
       </c>
-    </row>
-    <row r="10" spans="1:15">
+      <c r="O9" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16">
       <c r="A10" t="s">
         <v>16</v>
       </c>
@@ -890,8 +959,11 @@
       <c r="N10">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:15">
+      <c r="O10" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16">
       <c r="A11" t="s">
         <v>15</v>
       </c>
@@ -910,8 +982,11 @@
       <c r="N11">
         <v>2</v>
       </c>
-    </row>
-    <row r="12" spans="1:15">
+      <c r="O11" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16">
       <c r="A12" t="s">
         <v>9</v>
       </c>
@@ -948,8 +1023,11 @@
       <c r="N12">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:15">
+      <c r="O12" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -968,8 +1046,11 @@
       <c r="N13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15">
+      <c r="O13" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16">
       <c r="A14" t="s">
         <v>52</v>
       </c>

--- a/Client/assets/Csv/Building.xlsx
+++ b/Client/assets/Csv/Building.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\git\WarOfStarship\Client\assets\Csv\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\WarOfStarship\Client\assets\Csv\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -298,7 +298,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2">
     <font>
       <sz val="12"/>
@@ -624,7 +624,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="P9" sqref="P9"/>
+      <selection pane="bottomRight" activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -779,10 +779,10 @@
         <v>24</v>
       </c>
       <c r="D5">
+        <v>40</v>
+      </c>
+      <c r="E5">
         <v>100</v>
-      </c>
-      <c r="E5">
-        <v>200</v>
       </c>
       <c r="N5">
         <v>3</v>

--- a/Client/assets/Csv/Building.xlsx
+++ b/Client/assets/Csv/Building.xlsx
@@ -61,10 +61,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>太阳能收集器</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>waterdropprod</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -293,6 +289,10 @@
   </si>
   <si>
     <t>ThrusterRoom</t>
+  </si>
+  <si>
+    <t>反物质收集器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -624,7 +624,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D5" sqref="D5"/>
+      <selection pane="bottomRight" activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -642,25 +642,25 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D1" t="s">
         <v>4</v>
       </c>
       <c r="E1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1" t="s">
         <v>29</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>30</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>31</v>
-      </c>
-      <c r="I1" t="s">
-        <v>32</v>
       </c>
       <c r="J1" t="s">
         <v>2</v>
@@ -669,19 +669,19 @@
         <v>3</v>
       </c>
       <c r="L1" t="s">
+        <v>35</v>
+      </c>
+      <c r="M1" t="s">
         <v>36</v>
       </c>
-      <c r="M1" t="s">
-        <v>37</v>
-      </c>
       <c r="N1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="O1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="P1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:16">
@@ -692,13 +692,13 @@
         <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D2">
         <v>10</v>
       </c>
       <c r="J2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K2">
         <v>60</v>
@@ -707,21 +707,21 @@
         <v>4</v>
       </c>
       <c r="O2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="P2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:16">
       <c r="A3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D3">
         <v>20</v>
@@ -733,10 +733,10 @@
         <v>3</v>
       </c>
       <c r="O3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -744,16 +744,16 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>69</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D4">
         <v>20</v>
       </c>
       <c r="J4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K4">
         <v>60</v>
@@ -762,21 +762,21 @@
         <v>4</v>
       </c>
       <c r="O4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="P4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:16">
       <c r="A5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D5">
         <v>40</v>
@@ -788,39 +788,39 @@
         <v>3</v>
       </c>
       <c r="O5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="P5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:16">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D6">
         <v>100</v>
       </c>
       <c r="F6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G6">
         <v>30</v>
       </c>
       <c r="H6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I6">
         <v>1</v>
       </c>
       <c r="J6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="L6">
         <v>0.1</v>
@@ -832,18 +832,18 @@
         <v>4</v>
       </c>
       <c r="O6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="7" spans="1:16">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D7">
         <v>50</v>
@@ -855,36 +855,36 @@
         <v>2</v>
       </c>
       <c r="O7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="8" spans="1:16">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D8">
         <v>160</v>
       </c>
       <c r="F8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G8">
         <v>50</v>
       </c>
       <c r="H8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I8">
         <v>2</v>
       </c>
       <c r="J8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="L8">
         <v>0.12</v>
@@ -896,18 +896,18 @@
         <v>4</v>
       </c>
       <c r="O8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="9" spans="1:16">
       <c r="A9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D9">
         <v>80</v>
@@ -919,36 +919,36 @@
         <v>2</v>
       </c>
       <c r="O9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="10" spans="1:16">
       <c r="A10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" t="s">
         <v>16</v>
       </c>
-      <c r="B10" t="s">
-        <v>17</v>
-      </c>
       <c r="C10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D10">
         <v>80</v>
       </c>
       <c r="F10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G10">
         <v>25</v>
       </c>
       <c r="H10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I10">
         <v>1</v>
       </c>
       <c r="J10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="L10">
         <v>0.15</v>
@@ -960,18 +960,18 @@
         <v>4</v>
       </c>
       <c r="O10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="11" spans="1:16">
       <c r="A11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D11">
         <v>200</v>
@@ -983,36 +983,36 @@
         <v>2</v>
       </c>
       <c r="O11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="12" spans="1:16">
       <c r="A12" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D12">
         <v>2000</v>
       </c>
       <c r="F12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G12">
         <v>10000</v>
       </c>
       <c r="H12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I12">
         <v>10000</v>
       </c>
       <c r="J12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="L12">
         <v>24</v>
@@ -1024,18 +1024,18 @@
         <v>1</v>
       </c>
       <c r="O12" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="13" spans="1:16">
       <c r="A13" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D13">
         <v>1000</v>
@@ -1047,15 +1047,15 @@
         <v>0</v>
       </c>
       <c r="O13" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="14" spans="1:16">
       <c r="A14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B14" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D14">
         <v>5</v>

--- a/Client/assets/Csv/Building.xlsx
+++ b/Client/assets/Csv/Building.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="78">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -292,6 +292,38 @@
   </si>
   <si>
     <t>反物质收集器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>光粒生产车间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>光粒仓库</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>starlighterprod</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>starlighterhouse</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>exbprod</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>exbhouse</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二向箔生产车间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二向箔仓库</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -618,13 +650,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P14"/>
+  <dimension ref="A1:P18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B5" sqref="B5"/>
+      <selection pane="bottomRight" activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -701,7 +733,7 @@
         <v>38</v>
       </c>
       <c r="K2">
-        <v>60</v>
+        <v>300</v>
       </c>
       <c r="N2">
         <v>4</v>
@@ -727,7 +759,7 @@
         <v>20</v>
       </c>
       <c r="E3">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N3">
         <v>3</v>
@@ -756,7 +788,7 @@
         <v>20</v>
       </c>
       <c r="K4">
-        <v>60</v>
+        <v>300</v>
       </c>
       <c r="N4">
         <v>4</v>
@@ -782,7 +814,7 @@
         <v>40</v>
       </c>
       <c r="E5">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N5">
         <v>3</v>
@@ -823,7 +855,7 @@
         <v>24</v>
       </c>
       <c r="L6">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="M6">
         <v>4</v>
@@ -887,7 +919,7 @@
         <v>25</v>
       </c>
       <c r="L8">
-        <v>0.12</v>
+        <v>0.06</v>
       </c>
       <c r="M8">
         <v>4</v>
@@ -951,7 +983,7 @@
         <v>26</v>
       </c>
       <c r="L10">
-        <v>0.15</v>
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="M10">
         <v>4</v>
@@ -997,19 +1029,19 @@
         <v>22</v>
       </c>
       <c r="D12">
-        <v>2000</v>
+        <v>20000</v>
       </c>
       <c r="F12" t="s">
         <v>38</v>
       </c>
       <c r="G12">
-        <v>10000</v>
+        <v>100000</v>
       </c>
       <c r="H12" t="s">
         <v>44</v>
       </c>
       <c r="I12">
-        <v>10000</v>
+        <v>100000</v>
       </c>
       <c r="J12" t="s">
         <v>27</v>
@@ -1038,7 +1070,7 @@
         <v>23</v>
       </c>
       <c r="D13">
-        <v>1000</v>
+        <v>10000</v>
       </c>
       <c r="E13">
         <v>1</v>
@@ -1052,24 +1084,152 @@
     </row>
     <row r="14" spans="1:16">
       <c r="A14" t="s">
+        <v>72</v>
+      </c>
+      <c r="B14" t="s">
+        <v>70</v>
+      </c>
+      <c r="C14" t="s">
+        <v>22</v>
+      </c>
+      <c r="D14">
+        <v>200000</v>
+      </c>
+      <c r="F14" t="s">
+        <v>38</v>
+      </c>
+      <c r="G14">
+        <v>1000000</v>
+      </c>
+      <c r="H14" t="s">
+        <v>44</v>
+      </c>
+      <c r="I14">
+        <v>1000000</v>
+      </c>
+      <c r="J14" t="s">
+        <v>27</v>
+      </c>
+      <c r="L14">
+        <v>48</v>
+      </c>
+      <c r="M14">
+        <v>48</v>
+      </c>
+      <c r="N14">
+        <v>1</v>
+      </c>
+      <c r="O14" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16">
+      <c r="A15" t="s">
+        <v>73</v>
+      </c>
+      <c r="B15" t="s">
+        <v>71</v>
+      </c>
+      <c r="C15" t="s">
+        <v>23</v>
+      </c>
+      <c r="D15">
+        <v>100000</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16">
+      <c r="A16" t="s">
+        <v>74</v>
+      </c>
+      <c r="B16" t="s">
+        <v>76</v>
+      </c>
+      <c r="C16" t="s">
+        <v>22</v>
+      </c>
+      <c r="D16">
+        <v>2000000</v>
+      </c>
+      <c r="F16" t="s">
+        <v>38</v>
+      </c>
+      <c r="G16">
+        <v>1000000</v>
+      </c>
+      <c r="H16" t="s">
+        <v>44</v>
+      </c>
+      <c r="I16">
+        <v>20000000</v>
+      </c>
+      <c r="J16" t="s">
+        <v>27</v>
+      </c>
+      <c r="L16">
+        <v>120</v>
+      </c>
+      <c r="M16">
+        <v>120</v>
+      </c>
+      <c r="N16">
+        <v>1</v>
+      </c>
+      <c r="O16" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
+      <c r="A17" t="s">
+        <v>75</v>
+      </c>
+      <c r="B17" t="s">
+        <v>77</v>
+      </c>
+      <c r="C17" t="s">
+        <v>23</v>
+      </c>
+      <c r="D17">
+        <v>1000000</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
+      <c r="A18" t="s">
         <v>51</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B18" t="s">
         <v>45</v>
       </c>
-      <c r="D14">
+      <c r="D18">
         <v>5</v>
       </c>
-      <c r="E14">
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="K18">
         <v>1.5</v>
       </c>
-      <c r="K14">
-        <v>1.5</v>
-      </c>
-      <c r="L14">
+      <c r="L18">
         <v>0.9</v>
       </c>
-      <c r="M14">
+      <c r="M18">
         <v>1.25</v>
       </c>
     </row>

--- a/Client/assets/Csv/Building.xlsx
+++ b/Client/assets/Csv/Building.xlsx
@@ -624,7 +624,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B5" sqref="B5"/>
+      <selection pane="bottomRight" activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -695,7 +695,7 @@
         <v>21</v>
       </c>
       <c r="D2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="J2" t="s">
         <v>38</v>
@@ -724,7 +724,7 @@
         <v>23</v>
       </c>
       <c r="D3">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E3">
         <v>50</v>
@@ -750,7 +750,7 @@
         <v>21</v>
       </c>
       <c r="D4">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="J4" t="s">
         <v>20</v>
@@ -779,7 +779,7 @@
         <v>23</v>
       </c>
       <c r="D5">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="E5">
         <v>100</v>
@@ -805,7 +805,7 @@
         <v>22</v>
       </c>
       <c r="D6">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="F6" t="s">
         <v>37</v>
@@ -846,7 +846,7 @@
         <v>23</v>
       </c>
       <c r="D7">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="E7">
         <v>10</v>
@@ -869,7 +869,7 @@
         <v>22</v>
       </c>
       <c r="D8">
-        <v>160</v>
+        <v>40</v>
       </c>
       <c r="F8" t="s">
         <v>38</v>
@@ -910,7 +910,7 @@
         <v>23</v>
       </c>
       <c r="D9">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="E9">
         <v>10</v>
@@ -933,7 +933,7 @@
         <v>22</v>
       </c>
       <c r="D10">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="F10" t="s">
         <v>43</v>

--- a/Client/assets/Csv/Building.xlsx
+++ b/Client/assets/Csv/Building.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="78">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -292,6 +292,38 @@
   </si>
   <si>
     <t>反物质收集器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>光粒生产车间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>光粒仓库</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>starlighterprod</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>starlighterhouse</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>exbprod</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>exbhouse</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二向箔生产车间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二向箔仓库</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -618,13 +650,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P14"/>
+  <dimension ref="A1:P18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D12" sqref="D12"/>
+      <selection pane="bottomRight" activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -695,13 +727,13 @@
         <v>21</v>
       </c>
       <c r="D2">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="J2" t="s">
         <v>38</v>
       </c>
       <c r="K2">
-        <v>60</v>
+        <v>300</v>
       </c>
       <c r="N2">
         <v>4</v>
@@ -724,10 +756,10 @@
         <v>23</v>
       </c>
       <c r="D3">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E3">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N3">
         <v>3</v>
@@ -750,13 +782,13 @@
         <v>21</v>
       </c>
       <c r="D4">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="J4" t="s">
         <v>20</v>
       </c>
       <c r="K4">
-        <v>60</v>
+        <v>300</v>
       </c>
       <c r="N4">
         <v>4</v>
@@ -779,10 +811,10 @@
         <v>23</v>
       </c>
       <c r="D5">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="E5">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N5">
         <v>3</v>
@@ -805,7 +837,7 @@
         <v>22</v>
       </c>
       <c r="D6">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="F6" t="s">
         <v>37</v>
@@ -823,7 +855,7 @@
         <v>24</v>
       </c>
       <c r="L6">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="M6">
         <v>4</v>
@@ -846,7 +878,7 @@
         <v>23</v>
       </c>
       <c r="D7">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="E7">
         <v>10</v>
@@ -869,7 +901,7 @@
         <v>22</v>
       </c>
       <c r="D8">
-        <v>40</v>
+        <v>160</v>
       </c>
       <c r="F8" t="s">
         <v>38</v>
@@ -887,7 +919,7 @@
         <v>25</v>
       </c>
       <c r="L8">
-        <v>0.12</v>
+        <v>0.06</v>
       </c>
       <c r="M8">
         <v>4</v>
@@ -910,7 +942,7 @@
         <v>23</v>
       </c>
       <c r="D9">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="E9">
         <v>10</v>
@@ -933,7 +965,7 @@
         <v>22</v>
       </c>
       <c r="D10">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="F10" t="s">
         <v>43</v>
@@ -951,7 +983,7 @@
         <v>26</v>
       </c>
       <c r="L10">
-        <v>0.15</v>
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="M10">
         <v>4</v>
@@ -997,19 +1029,19 @@
         <v>22</v>
       </c>
       <c r="D12">
-        <v>2000</v>
+        <v>20000</v>
       </c>
       <c r="F12" t="s">
         <v>38</v>
       </c>
       <c r="G12">
-        <v>10000</v>
+        <v>100000</v>
       </c>
       <c r="H12" t="s">
         <v>44</v>
       </c>
       <c r="I12">
-        <v>10000</v>
+        <v>100000</v>
       </c>
       <c r="J12" t="s">
         <v>27</v>
@@ -1038,7 +1070,7 @@
         <v>23</v>
       </c>
       <c r="D13">
-        <v>1000</v>
+        <v>10000</v>
       </c>
       <c r="E13">
         <v>1</v>
@@ -1052,24 +1084,152 @@
     </row>
     <row r="14" spans="1:16">
       <c r="A14" t="s">
+        <v>72</v>
+      </c>
+      <c r="B14" t="s">
+        <v>70</v>
+      </c>
+      <c r="C14" t="s">
+        <v>22</v>
+      </c>
+      <c r="D14">
+        <v>200000</v>
+      </c>
+      <c r="F14" t="s">
+        <v>38</v>
+      </c>
+      <c r="G14">
+        <v>1000000</v>
+      </c>
+      <c r="H14" t="s">
+        <v>44</v>
+      </c>
+      <c r="I14">
+        <v>1000000</v>
+      </c>
+      <c r="J14" t="s">
+        <v>27</v>
+      </c>
+      <c r="L14">
+        <v>48</v>
+      </c>
+      <c r="M14">
+        <v>48</v>
+      </c>
+      <c r="N14">
+        <v>1</v>
+      </c>
+      <c r="O14" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16">
+      <c r="A15" t="s">
+        <v>73</v>
+      </c>
+      <c r="B15" t="s">
+        <v>71</v>
+      </c>
+      <c r="C15" t="s">
+        <v>23</v>
+      </c>
+      <c r="D15">
+        <v>100000</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16">
+      <c r="A16" t="s">
+        <v>74</v>
+      </c>
+      <c r="B16" t="s">
+        <v>76</v>
+      </c>
+      <c r="C16" t="s">
+        <v>22</v>
+      </c>
+      <c r="D16">
+        <v>2000000</v>
+      </c>
+      <c r="F16" t="s">
+        <v>38</v>
+      </c>
+      <c r="G16">
+        <v>1000000</v>
+      </c>
+      <c r="H16" t="s">
+        <v>44</v>
+      </c>
+      <c r="I16">
+        <v>20000000</v>
+      </c>
+      <c r="J16" t="s">
+        <v>27</v>
+      </c>
+      <c r="L16">
+        <v>120</v>
+      </c>
+      <c r="M16">
+        <v>120</v>
+      </c>
+      <c r="N16">
+        <v>1</v>
+      </c>
+      <c r="O16" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
+      <c r="A17" t="s">
+        <v>75</v>
+      </c>
+      <c r="B17" t="s">
+        <v>77</v>
+      </c>
+      <c r="C17" t="s">
+        <v>23</v>
+      </c>
+      <c r="D17">
+        <v>1000000</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
+      <c r="A18" t="s">
         <v>51</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B18" t="s">
         <v>45</v>
       </c>
-      <c r="D14">
+      <c r="D18">
         <v>5</v>
       </c>
-      <c r="E14">
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="K18">
         <v>1.5</v>
       </c>
-      <c r="K14">
-        <v>1.5</v>
-      </c>
-      <c r="L14">
+      <c r="L18">
         <v>0.9</v>
       </c>
-      <c r="M14">
+      <c r="M18">
         <v>1.25</v>
       </c>
     </row>
